--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fndc5-Itgb5.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fndc5-Itgb5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,15 +76,6 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
-    <t>sCs</t>
-  </si>
-  <si>
-    <t>Fndc5</t>
-  </si>
-  <si>
-    <t>Itgb5</t>
-  </si>
-  <si>
     <t>ECs</t>
   </si>
   <si>
@@ -98,6 +89,15 @@
   </si>
   <si>
     <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
+    <t>Fndc5</t>
+  </si>
+  <si>
+    <t>Itgb5</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>2.51960474290592</v>
+        <v>0.296314</v>
       </c>
       <c r="H2">
-        <v>2.51960474290592</v>
+        <v>0.592628</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.05659894607669059</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.05026307993292579</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.46606625712103</v>
+        <v>3.840777</v>
       </c>
       <c r="N2">
-        <v>3.46606625712103</v>
+        <v>7.681554</v>
       </c>
       <c r="O2">
-        <v>0.02352134837643289</v>
+        <v>0.02536369583109148</v>
       </c>
       <c r="P2">
-        <v>0.02352134837643289</v>
+        <v>0.0173887125129192</v>
       </c>
       <c r="Q2">
-        <v>8.733116980668317</v>
+        <v>1.138075995978</v>
       </c>
       <c r="R2">
-        <v>8.733116980668317</v>
+        <v>4.552303983912</v>
       </c>
       <c r="S2">
-        <v>0.02352134837643289</v>
+        <v>0.001435558452649529</v>
       </c>
       <c r="T2">
-        <v>0.02352134837643289</v>
+        <v>0.0008740102469675249</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>2.51960474290592</v>
+        <v>0.296314</v>
       </c>
       <c r="H3">
-        <v>2.51960474290592</v>
+        <v>0.592628</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.05659894607669059</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.05026307993292579</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>19.3808377477765</v>
+        <v>20.670164</v>
       </c>
       <c r="N3">
-        <v>19.3808377477765</v>
+        <v>62.010492</v>
       </c>
       <c r="O3">
-        <v>0.1315218471533835</v>
+        <v>0.1365014819852278</v>
       </c>
       <c r="P3">
-        <v>0.1315218471533835</v>
+        <v>0.1403729789796018</v>
       </c>
       <c r="Q3">
-        <v>48.83205071078776</v>
+        <v>6.124858975496</v>
       </c>
       <c r="R3">
-        <v>48.83205071078776</v>
+        <v>36.749153852976</v>
       </c>
       <c r="S3">
-        <v>0.1315218471533835</v>
+        <v>0.00772584001827026</v>
       </c>
       <c r="T3">
-        <v>0.1315218471533835</v>
+        <v>0.007055578262874638</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>2.51960474290592</v>
+        <v>0.296314</v>
       </c>
       <c r="H4">
-        <v>2.51960474290592</v>
+        <v>0.592628</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.05659894607669059</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.05026307993292579</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>56.318798877526</v>
+        <v>57.18013133333333</v>
       </c>
       <c r="N4">
-        <v>56.318798877526</v>
+        <v>171.540394</v>
       </c>
       <c r="O4">
-        <v>0.3821894881031094</v>
+        <v>0.3776057445460984</v>
       </c>
       <c r="P4">
-        <v>0.3821894881031094</v>
+        <v>0.3883155147537712</v>
       </c>
       <c r="Q4">
-        <v>141.9011127665791</v>
+        <v>16.94327343590533</v>
       </c>
       <c r="R4">
-        <v>141.9011127665791</v>
+        <v>101.659640615432</v>
       </c>
       <c r="S4">
-        <v>0.3821894881031094</v>
+        <v>0.02137208717381322</v>
       </c>
       <c r="T4">
-        <v>0.3821894881031094</v>
+        <v>0.01951793375726403</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>2.51960474290592</v>
+        <v>0.296314</v>
       </c>
       <c r="H5">
-        <v>2.51960474290592</v>
+        <v>0.592628</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.05659894607669059</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.05026307993292579</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.4912197396901</v>
+        <v>55.57159966666666</v>
       </c>
       <c r="N5">
-        <v>54.4912197396901</v>
+        <v>166.714799</v>
       </c>
       <c r="O5">
-        <v>0.3697872077086645</v>
+        <v>0.3669833345681142</v>
       </c>
       <c r="P5">
-        <v>0.3697872077086645</v>
+        <v>0.3773918287185262</v>
       </c>
       <c r="Q5">
-        <v>137.2963357028519</v>
+        <v>16.46664298362867</v>
       </c>
       <c r="R5">
-        <v>137.2963357028519</v>
+        <v>98.79985790177199</v>
       </c>
       <c r="S5">
-        <v>0.3697872077086645</v>
+        <v>0.02077086996426479</v>
       </c>
       <c r="T5">
-        <v>0.3697872077086645</v>
+        <v>0.01896887565291232</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>2.51960474290592</v>
+        <v>0.296314</v>
       </c>
       <c r="H6">
-        <v>2.51960474290592</v>
+        <v>0.592628</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.05659894607669059</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.05026307993292579</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.01940832880662</v>
+        <v>5.477037333333333</v>
       </c>
       <c r="N6">
-        <v>5.01940832880662</v>
+        <v>16.431112</v>
       </c>
       <c r="O6">
-        <v>0.03406260676721585</v>
+        <v>0.03616922018076005</v>
       </c>
       <c r="P6">
-        <v>0.03406260676721585</v>
+        <v>0.03719506272240967</v>
       </c>
       <c r="Q6">
-        <v>12.64692503184264</v>
+        <v>1.622922840389333</v>
       </c>
       <c r="R6">
-        <v>12.64692503184264</v>
+        <v>9.737537042335999</v>
       </c>
       <c r="S6">
-        <v>0.03406260676721585</v>
+        <v>0.002047139742646787</v>
       </c>
       <c r="T6">
-        <v>0.03406260676721585</v>
+        <v>0.001869538410726666</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,1921 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.296314</v>
+      </c>
+      <c r="H7">
+        <v>0.592628</v>
+      </c>
+      <c r="I7">
+        <v>0.05659894607669059</v>
+      </c>
+      <c r="J7">
+        <v>0.05026307993292579</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>8.6884195</v>
+      </c>
+      <c r="N7">
+        <v>17.376839</v>
+      </c>
+      <c r="O7">
+        <v>0.05737652288870818</v>
+      </c>
+      <c r="P7">
+        <v>0.03933590231277193</v>
+      </c>
+      <c r="Q7">
+        <v>2.574500335723</v>
+      </c>
+      <c r="R7">
+        <v>10.298001342892</v>
+      </c>
+      <c r="S7">
+        <v>0.003247450725045998</v>
+      </c>
+      <c r="T7">
+        <v>0.001977143602180616</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.6194636666666667</v>
+      </c>
+      <c r="H8">
+        <v>1.858391</v>
+      </c>
+      <c r="I8">
+        <v>0.1183237736527323</v>
+      </c>
+      <c r="J8">
+        <v>0.1576173508164142</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>3.840777</v>
+      </c>
+      <c r="N8">
+        <v>7.681554</v>
+      </c>
+      <c r="O8">
+        <v>0.02536369583109148</v>
+      </c>
+      <c r="P8">
+        <v>0.0173887125129192</v>
+      </c>
+      <c r="Q8">
+        <v>2.379221803269</v>
+      </c>
+      <c r="R8">
+        <v>14.275330819614</v>
+      </c>
+      <c r="S8">
+        <v>0.003001128204514817</v>
+      </c>
+      <c r="T8">
+        <v>0.002740762800394557</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.6194636666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.858391</v>
+      </c>
+      <c r="I9">
+        <v>0.1183237736527323</v>
+      </c>
+      <c r="J9">
+        <v>0.1576173508164142</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>20.670164</v>
+      </c>
+      <c r="N9">
+        <v>62.010492</v>
+      </c>
+      <c r="O9">
+        <v>0.1365014819852278</v>
+      </c>
+      <c r="P9">
+        <v>0.1403729789796018</v>
+      </c>
+      <c r="Q9">
+        <v>12.80441558204133</v>
+      </c>
+      <c r="R9">
+        <v>115.239740238372</v>
+      </c>
+      <c r="S9">
+        <v>0.0161513704576826</v>
+      </c>
+      <c r="T9">
+        <v>0.02212521707297303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.6194636666666667</v>
+      </c>
+      <c r="H10">
+        <v>1.858391</v>
+      </c>
+      <c r="I10">
+        <v>0.1183237736527323</v>
+      </c>
+      <c r="J10">
+        <v>0.1576173508164142</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>57.18013133333333</v>
+      </c>
+      <c r="N10">
+        <v>171.540394</v>
+      </c>
+      <c r="O10">
+        <v>0.3776057445460984</v>
+      </c>
+      <c r="P10">
+        <v>0.3883155147537712</v>
+      </c>
+      <c r="Q10">
+        <v>35.42101381622822</v>
+      </c>
+      <c r="R10">
+        <v>318.789124346054</v>
+      </c>
+      <c r="S10">
+        <v>0.04467973664764398</v>
+      </c>
+      <c r="T10">
+        <v>0.06120526271640161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.6194636666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.858391</v>
+      </c>
+      <c r="I11">
+        <v>0.1183237736527323</v>
+      </c>
+      <c r="J11">
+        <v>0.1576173508164142</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>55.57159966666666</v>
+      </c>
+      <c r="N11">
+        <v>166.714799</v>
+      </c>
+      <c r="O11">
+        <v>0.3669833345681142</v>
+      </c>
+      <c r="P11">
+        <v>0.3773918287185262</v>
+      </c>
+      <c r="Q11">
+        <v>34.42458689204544</v>
+      </c>
+      <c r="R11">
+        <v>309.821282028409</v>
+      </c>
+      <c r="S11">
+        <v>0.04342285301376245</v>
+      </c>
+      <c r="T11">
+        <v>0.05948350026237603</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.6194636666666667</v>
+      </c>
+      <c r="H12">
+        <v>1.858391</v>
+      </c>
+      <c r="I12">
+        <v>0.1183237736527323</v>
+      </c>
+      <c r="J12">
+        <v>0.1576173508164142</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>5.477037333333333</v>
+      </c>
+      <c r="N12">
+        <v>16.431112</v>
+      </c>
+      <c r="O12">
+        <v>0.03616922018076005</v>
+      </c>
+      <c r="P12">
+        <v>0.03719506272240967</v>
+      </c>
+      <c r="Q12">
+        <v>3.392825628976889</v>
+      </c>
+      <c r="R12">
+        <v>30.535430660792</v>
+      </c>
+      <c r="S12">
+        <v>0.004279678621864088</v>
+      </c>
+      <c r="T12">
+        <v>0.005862587249756574</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.6194636666666667</v>
+      </c>
+      <c r="H13">
+        <v>1.858391</v>
+      </c>
+      <c r="I13">
+        <v>0.1183237736527323</v>
+      </c>
+      <c r="J13">
+        <v>0.1576173508164142</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>8.6884195</v>
+      </c>
+      <c r="N13">
+        <v>17.376839</v>
+      </c>
+      <c r="O13">
+        <v>0.05737652288870818</v>
+      </c>
+      <c r="P13">
+        <v>0.03933590231277193</v>
+      </c>
+      <c r="Q13">
+        <v>5.382160201008167</v>
+      </c>
+      <c r="R13">
+        <v>32.292961206049</v>
+      </c>
+      <c r="S13">
+        <v>0.006789006707264318</v>
+      </c>
+      <c r="T13">
+        <v>0.00620002071451237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2.51960474290592</v>
-      </c>
-      <c r="H7">
-        <v>2.51960474290592</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>8.681983787270511</v>
-      </c>
-      <c r="N7">
-        <v>8.681983787270511</v>
-      </c>
-      <c r="O7">
-        <v>0.05891750189119398</v>
-      </c>
-      <c r="P7">
-        <v>0.05891750189119398</v>
-      </c>
-      <c r="Q7">
-        <v>21.87516752823908</v>
-      </c>
-      <c r="R7">
-        <v>21.87516752823908</v>
-      </c>
-      <c r="S7">
-        <v>0.05891750189119398</v>
-      </c>
-      <c r="T7">
-        <v>0.05891750189119398</v>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1489083333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.446725</v>
+      </c>
+      <c r="I14">
+        <v>0.02844298524100515</v>
+      </c>
+      <c r="J14">
+        <v>0.03788848043466774</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.840777</v>
+      </c>
+      <c r="N14">
+        <v>7.681554</v>
+      </c>
+      <c r="O14">
+        <v>0.02536369583109148</v>
+      </c>
+      <c r="P14">
+        <v>0.0173887125129192</v>
+      </c>
+      <c r="Q14">
+        <v>0.5719237017750001</v>
+      </c>
+      <c r="R14">
+        <v>3.43154221065</v>
+      </c>
+      <c r="S14">
+        <v>0.000721419226181079</v>
+      </c>
+      <c r="T14">
+        <v>0.0006588318938298014</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1489083333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.446725</v>
+      </c>
+      <c r="I15">
+        <v>0.02844298524100515</v>
+      </c>
+      <c r="J15">
+        <v>0.03788848043466774</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>20.670164</v>
+      </c>
+      <c r="N15">
+        <v>62.010492</v>
+      </c>
+      <c r="O15">
+        <v>0.1365014819852278</v>
+      </c>
+      <c r="P15">
+        <v>0.1403729789796018</v>
+      </c>
+      <c r="Q15">
+        <v>3.077959670966667</v>
+      </c>
+      <c r="R15">
+        <v>27.7016370387</v>
+      </c>
+      <c r="S15">
+        <v>0.003882509637481165</v>
+      </c>
+      <c r="T15">
+        <v>0.005318518867624669</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1489083333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.446725</v>
+      </c>
+      <c r="I16">
+        <v>0.02844298524100515</v>
+      </c>
+      <c r="J16">
+        <v>0.03788848043466774</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>57.18013133333333</v>
+      </c>
+      <c r="N16">
+        <v>171.540394</v>
+      </c>
+      <c r="O16">
+        <v>0.3776057445460984</v>
+      </c>
+      <c r="P16">
+        <v>0.3883155147537712</v>
+      </c>
+      <c r="Q16">
+        <v>8.514598056627777</v>
+      </c>
+      <c r="R16">
+        <v>76.63138250965</v>
+      </c>
+      <c r="S16">
+        <v>0.01074023461904344</v>
+      </c>
+      <c r="T16">
+        <v>0.01471268478322619</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1489083333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.446725</v>
+      </c>
+      <c r="I17">
+        <v>0.02844298524100515</v>
+      </c>
+      <c r="J17">
+        <v>0.03788848043466774</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>55.57159966666666</v>
+      </c>
+      <c r="N17">
+        <v>166.714799</v>
+      </c>
+      <c r="O17">
+        <v>0.3669833345681142</v>
+      </c>
+      <c r="P17">
+        <v>0.3773918287185262</v>
+      </c>
+      <c r="Q17">
+        <v>8.275074287030554</v>
+      </c>
+      <c r="R17">
+        <v>74.47566858327498</v>
+      </c>
+      <c r="S17">
+        <v>0.01043810156881573</v>
+      </c>
+      <c r="T17">
+        <v>0.01429880291860536</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.1489083333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.446725</v>
+      </c>
+      <c r="I18">
+        <v>0.02844298524100515</v>
+      </c>
+      <c r="J18">
+        <v>0.03788848043466774</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>5.477037333333333</v>
+      </c>
+      <c r="N18">
+        <v>16.431112</v>
+      </c>
+      <c r="O18">
+        <v>0.03616922018076005</v>
+      </c>
+      <c r="P18">
+        <v>0.03719506272240967</v>
+      </c>
+      <c r="Q18">
+        <v>0.815576500911111</v>
+      </c>
+      <c r="R18">
+        <v>7.340188508199999</v>
+      </c>
+      <c r="S18">
+        <v>0.001028760595780024</v>
+      </c>
+      <c r="T18">
+        <v>0.001409264406224258</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.1489083333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.446725</v>
+      </c>
+      <c r="I19">
+        <v>0.02844298524100515</v>
+      </c>
+      <c r="J19">
+        <v>0.03788848043466774</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>8.6884195</v>
+      </c>
+      <c r="N19">
+        <v>17.376839</v>
+      </c>
+      <c r="O19">
+        <v>0.05737652288870818</v>
+      </c>
+      <c r="P19">
+        <v>0.03933590231277193</v>
+      </c>
+      <c r="Q19">
+        <v>1.293778067045833</v>
+      </c>
+      <c r="R19">
+        <v>7.762668402275</v>
+      </c>
+      <c r="S19">
+        <v>0.001631959593703721</v>
+      </c>
+      <c r="T19">
+        <v>0.001490377565157461</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.144899</v>
+      </c>
+      <c r="H20">
+        <v>0.434697</v>
+      </c>
+      <c r="I20">
+        <v>0.02767716236008555</v>
+      </c>
+      <c r="J20">
+        <v>0.03686833908894457</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>3.840777</v>
+      </c>
+      <c r="N20">
+        <v>7.681554</v>
+      </c>
+      <c r="O20">
+        <v>0.02536369583109148</v>
+      </c>
+      <c r="P20">
+        <v>0.0173887125129192</v>
+      </c>
+      <c r="Q20">
+        <v>0.556524746523</v>
+      </c>
+      <c r="R20">
+        <v>3.339148479138</v>
+      </c>
+      <c r="S20">
+        <v>0.000701995127568944</v>
+      </c>
+      <c r="T20">
+        <v>0.0006410929492464786</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.144899</v>
+      </c>
+      <c r="H21">
+        <v>0.434697</v>
+      </c>
+      <c r="I21">
+        <v>0.02767716236008555</v>
+      </c>
+      <c r="J21">
+        <v>0.03686833908894457</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>20.670164</v>
+      </c>
+      <c r="N21">
+        <v>62.010492</v>
+      </c>
+      <c r="O21">
+        <v>0.1365014819852278</v>
+      </c>
+      <c r="P21">
+        <v>0.1403729789796018</v>
+      </c>
+      <c r="Q21">
+        <v>2.995086093436</v>
+      </c>
+      <c r="R21">
+        <v>26.955774840924</v>
+      </c>
+      <c r="S21">
+        <v>0.003777973679297443</v>
+      </c>
+      <c r="T21">
+        <v>0.005175318587945247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.144899</v>
+      </c>
+      <c r="H22">
+        <v>0.434697</v>
+      </c>
+      <c r="I22">
+        <v>0.02767716236008555</v>
+      </c>
+      <c r="J22">
+        <v>0.03686833908894457</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>57.18013133333333</v>
+      </c>
+      <c r="N22">
+        <v>171.540394</v>
+      </c>
+      <c r="O22">
+        <v>0.3776057445460984</v>
+      </c>
+      <c r="P22">
+        <v>0.3883155147537712</v>
+      </c>
+      <c r="Q22">
+        <v>8.285343850068665</v>
+      </c>
+      <c r="R22">
+        <v>74.56809465061799</v>
+      </c>
+      <c r="S22">
+        <v>0.01045105549990335</v>
+      </c>
+      <c r="T22">
+        <v>0.01431654807144009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.144899</v>
+      </c>
+      <c r="H23">
+        <v>0.434697</v>
+      </c>
+      <c r="I23">
+        <v>0.02767716236008555</v>
+      </c>
+      <c r="J23">
+        <v>0.03686833908894457</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>55.57159966666666</v>
+      </c>
+      <c r="N23">
+        <v>166.714799</v>
+      </c>
+      <c r="O23">
+        <v>0.3669833345681142</v>
+      </c>
+      <c r="P23">
+        <v>0.3773918287185262</v>
+      </c>
+      <c r="Q23">
+        <v>8.052269220100332</v>
+      </c>
+      <c r="R23">
+        <v>72.47042298090298</v>
+      </c>
+      <c r="S23">
+        <v>0.01015705733428729</v>
+      </c>
+      <c r="T23">
+        <v>0.01391380991059151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.144899</v>
+      </c>
+      <c r="H24">
+        <v>0.434697</v>
+      </c>
+      <c r="I24">
+        <v>0.02767716236008555</v>
+      </c>
+      <c r="J24">
+        <v>0.03686833908894457</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>5.477037333333333</v>
+      </c>
+      <c r="N24">
+        <v>16.431112</v>
+      </c>
+      <c r="O24">
+        <v>0.03616922018076005</v>
+      </c>
+      <c r="P24">
+        <v>0.03719506272240967</v>
+      </c>
+      <c r="Q24">
+        <v>0.7936172325626666</v>
+      </c>
+      <c r="R24">
+        <v>7.142555093064</v>
+      </c>
+      <c r="S24">
+        <v>0.001001061379380579</v>
+      </c>
+      <c r="T24">
+        <v>0.001371320184884361</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.144899</v>
+      </c>
+      <c r="H25">
+        <v>0.434697</v>
+      </c>
+      <c r="I25">
+        <v>0.02767716236008555</v>
+      </c>
+      <c r="J25">
+        <v>0.03686833908894457</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>8.6884195</v>
+      </c>
+      <c r="N25">
+        <v>17.376839</v>
+      </c>
+      <c r="O25">
+        <v>0.05737652288870818</v>
+      </c>
+      <c r="P25">
+        <v>0.03933590231277193</v>
+      </c>
+      <c r="Q25">
+        <v>1.2589432971305</v>
+      </c>
+      <c r="R25">
+        <v>7.553659782783</v>
+      </c>
+      <c r="S25">
+        <v>0.001588019339647941</v>
+      </c>
+      <c r="T25">
+        <v>0.001450249384836874</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.4065976666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.219793</v>
+      </c>
+      <c r="I26">
+        <v>0.07766423257279401</v>
+      </c>
+      <c r="J26">
+        <v>0.1034553768310363</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.840777</v>
+      </c>
+      <c r="N26">
+        <v>7.681554</v>
+      </c>
+      <c r="O26">
+        <v>0.02536369583109148</v>
+      </c>
+      <c r="P26">
+        <v>0.0173887125129192</v>
+      </c>
+      <c r="Q26">
+        <v>1.561650966387</v>
+      </c>
+      <c r="R26">
+        <v>9.369905798322002</v>
+      </c>
+      <c r="S26">
+        <v>0.001969851971931495</v>
+      </c>
+      <c r="T26">
+        <v>0.001798955805630612</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.4065976666666667</v>
+      </c>
+      <c r="H27">
+        <v>1.219793</v>
+      </c>
+      <c r="I27">
+        <v>0.07766423257279401</v>
+      </c>
+      <c r="J27">
+        <v>0.1034553768310363</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>20.670164</v>
+      </c>
+      <c r="N27">
+        <v>62.010492</v>
+      </c>
+      <c r="O27">
+        <v>0.1365014819852278</v>
+      </c>
+      <c r="P27">
+        <v>0.1403729789796018</v>
+      </c>
+      <c r="Q27">
+        <v>8.404440452017333</v>
+      </c>
+      <c r="R27">
+        <v>75.639964068156</v>
+      </c>
+      <c r="S27">
+        <v>0.01060128284343178</v>
+      </c>
+      <c r="T27">
+        <v>0.01452233943722983</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.4065976666666667</v>
+      </c>
+      <c r="H28">
+        <v>1.219793</v>
+      </c>
+      <c r="I28">
+        <v>0.07766423257279401</v>
+      </c>
+      <c r="J28">
+        <v>0.1034553768310363</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>57.18013133333333</v>
+      </c>
+      <c r="N28">
+        <v>171.540394</v>
+      </c>
+      <c r="O28">
+        <v>0.3776057445460984</v>
+      </c>
+      <c r="P28">
+        <v>0.3883155147537712</v>
+      </c>
+      <c r="Q28">
+        <v>23.24930797982689</v>
+      </c>
+      <c r="R28">
+        <v>209.243771818442</v>
+      </c>
+      <c r="S28">
+        <v>0.02932646036525122</v>
+      </c>
+      <c r="T28">
+        <v>0.04017332790818922</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.4065976666666667</v>
+      </c>
+      <c r="H29">
+        <v>1.219793</v>
+      </c>
+      <c r="I29">
+        <v>0.07766423257279401</v>
+      </c>
+      <c r="J29">
+        <v>0.1034553768310363</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>55.57159966666666</v>
+      </c>
+      <c r="N29">
+        <v>166.714799</v>
+      </c>
+      <c r="O29">
+        <v>0.3669833345681142</v>
+      </c>
+      <c r="P29">
+        <v>0.3773918287185262</v>
+      </c>
+      <c r="Q29">
+        <v>22.59528275740077</v>
+      </c>
+      <c r="R29">
+        <v>203.357544816607</v>
+      </c>
+      <c r="S29">
+        <v>0.02850147904623749</v>
+      </c>
+      <c r="T29">
+        <v>0.03904321385302902</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.4065976666666667</v>
+      </c>
+      <c r="H30">
+        <v>1.219793</v>
+      </c>
+      <c r="I30">
+        <v>0.07766423257279401</v>
+      </c>
+      <c r="J30">
+        <v>0.1034553768310363</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>5.477037333333333</v>
+      </c>
+      <c r="N30">
+        <v>16.431112</v>
+      </c>
+      <c r="O30">
+        <v>0.03616922018076005</v>
+      </c>
+      <c r="P30">
+        <v>0.03719506272240967</v>
+      </c>
+      <c r="Q30">
+        <v>2.226950599979555</v>
+      </c>
+      <c r="R30">
+        <v>20.042555399816</v>
+      </c>
+      <c r="S30">
+        <v>0.002809054728095143</v>
+      </c>
+      <c r="T30">
+        <v>0.003848029230200921</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.4065976666666667</v>
+      </c>
+      <c r="H31">
+        <v>1.219793</v>
+      </c>
+      <c r="I31">
+        <v>0.07766423257279401</v>
+      </c>
+      <c r="J31">
+        <v>0.1034553768310363</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>8.6884195</v>
+      </c>
+      <c r="N31">
+        <v>17.376839</v>
+      </c>
+      <c r="O31">
+        <v>0.05737652288870818</v>
+      </c>
+      <c r="P31">
+        <v>0.03933590231277193</v>
+      </c>
+      <c r="Q31">
+        <v>3.532691095721167</v>
+      </c>
+      <c r="R31">
+        <v>21.196146574327</v>
+      </c>
+      <c r="S31">
+        <v>0.004456103617846871</v>
+      </c>
+      <c r="T31">
+        <v>0.00406951059675665</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>3.6191445</v>
+      </c>
+      <c r="H32">
+        <v>7.238289</v>
+      </c>
+      <c r="I32">
+        <v>0.6912929000966924</v>
+      </c>
+      <c r="J32">
+        <v>0.6139073728960115</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>3.840777</v>
+      </c>
+      <c r="N32">
+        <v>7.681554</v>
+      </c>
+      <c r="O32">
+        <v>0.02536369583109148</v>
+      </c>
+      <c r="P32">
+        <v>0.0173887125129192</v>
+      </c>
+      <c r="Q32">
+        <v>13.9003269552765</v>
+      </c>
+      <c r="R32">
+        <v>55.601307821106</v>
+      </c>
+      <c r="S32">
+        <v>0.01753374284824562</v>
+      </c>
+      <c r="T32">
+        <v>0.01067505881685023</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>3.6191445</v>
+      </c>
+      <c r="H33">
+        <v>7.238289</v>
+      </c>
+      <c r="I33">
+        <v>0.6912929000966924</v>
+      </c>
+      <c r="J33">
+        <v>0.6139073728960115</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>20.670164</v>
+      </c>
+      <c r="N33">
+        <v>62.010492</v>
+      </c>
+      <c r="O33">
+        <v>0.1365014819852278</v>
+      </c>
+      <c r="P33">
+        <v>0.1403729789796018</v>
+      </c>
+      <c r="Q33">
+        <v>74.80831035469799</v>
+      </c>
+      <c r="R33">
+        <v>448.849862128188</v>
+      </c>
+      <c r="S33">
+        <v>0.09436250534906454</v>
+      </c>
+      <c r="T33">
+        <v>0.08617600675095438</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>3.6191445</v>
+      </c>
+      <c r="H34">
+        <v>7.238289</v>
+      </c>
+      <c r="I34">
+        <v>0.6912929000966924</v>
+      </c>
+      <c r="J34">
+        <v>0.6139073728960115</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>57.18013133333333</v>
+      </c>
+      <c r="N34">
+        <v>171.540394</v>
+      </c>
+      <c r="O34">
+        <v>0.3776057445460984</v>
+      </c>
+      <c r="P34">
+        <v>0.3883155147537712</v>
+      </c>
+      <c r="Q34">
+        <v>206.943157824311</v>
+      </c>
+      <c r="R34">
+        <v>1241.658946945866</v>
+      </c>
+      <c r="S34">
+        <v>0.2610361702404431</v>
+      </c>
+      <c r="T34">
+        <v>0.2383897575172501</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>3.6191445</v>
+      </c>
+      <c r="H35">
+        <v>7.238289</v>
+      </c>
+      <c r="I35">
+        <v>0.6912929000966924</v>
+      </c>
+      <c r="J35">
+        <v>0.6139073728960115</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>55.57159966666666</v>
+      </c>
+      <c r="N35">
+        <v>166.714799</v>
+      </c>
+      <c r="O35">
+        <v>0.3669833345681142</v>
+      </c>
+      <c r="P35">
+        <v>0.3773918287185262</v>
+      </c>
+      <c r="Q35">
+        <v>201.1216492898185</v>
+      </c>
+      <c r="R35">
+        <v>1206.729895738911</v>
+      </c>
+      <c r="S35">
+        <v>0.2536929736407464</v>
+      </c>
+      <c r="T35">
+        <v>0.231683626121012</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>3.6191445</v>
+      </c>
+      <c r="H36">
+        <v>7.238289</v>
+      </c>
+      <c r="I36">
+        <v>0.6912929000966924</v>
+      </c>
+      <c r="J36">
+        <v>0.6139073728960115</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>5.477037333333333</v>
+      </c>
+      <c r="N36">
+        <v>16.431112</v>
+      </c>
+      <c r="O36">
+        <v>0.03616922018076005</v>
+      </c>
+      <c r="P36">
+        <v>0.03719506272240967</v>
+      </c>
+      <c r="Q36">
+        <v>19.822189541228</v>
+      </c>
+      <c r="R36">
+        <v>118.933137247368</v>
+      </c>
+      <c r="S36">
+        <v>0.02500352511299343</v>
+      </c>
+      <c r="T36">
+        <v>0.02283432324061689</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>3.6191445</v>
+      </c>
+      <c r="H37">
+        <v>7.238289</v>
+      </c>
+      <c r="I37">
+        <v>0.6912929000966924</v>
+      </c>
+      <c r="J37">
+        <v>0.6139073728960115</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>8.6884195</v>
+      </c>
+      <c r="N37">
+        <v>17.376839</v>
+      </c>
+      <c r="O37">
+        <v>0.05737652288870818</v>
+      </c>
+      <c r="P37">
+        <v>0.03933590231277193</v>
+      </c>
+      <c r="Q37">
+        <v>31.44464564711775</v>
+      </c>
+      <c r="R37">
+        <v>125.778582588471</v>
+      </c>
+      <c r="S37">
+        <v>0.03966398290519933</v>
+      </c>
+      <c r="T37">
+        <v>0.02414860044932796</v>
       </c>
     </row>
   </sheetData>
